--- a/product-definitions/spreadsheet/radiation.xlsx
+++ b/product-definitions/spreadsheet/radiation.xlsx
@@ -12,14 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="56">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -29,12 +35,6 @@
     <t>Proposed name</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>example value</t>
   </si>
   <si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Upwelling Shortwave Radiation in air</t>
+  </si>
+  <si>
+    <t>radiometer_body_temperature</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Radiometer Body Temperature</t>
   </si>
   <si>
     <t>qc_flag_upwelling_shortwave</t>
@@ -163,7 +172,7 @@
     <t>qc_flag_body_temperature</t>
   </si>
   <si>
-    <t>Data Quality flag: sensor body temperature</t>
+    <t>Data Quality flag: Body Temperature</t>
   </si>
   <si>
     <t>0b,1b, 2b, 3b</t>
@@ -238,15 +247,15 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -304,38 +313,38 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="12.0" customHeight="1"/>
     <row r="3" ht="12.0" customHeight="1"/>
@@ -1361,22 +1370,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1403,7 +1412,7 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1489,7 +1498,7 @@
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1575,7 +1584,7 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="B29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1653,7 +1662,7 @@
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="B40" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -1717,7 +1726,7 @@
     </row>
     <row r="48" ht="12.0" customHeight="1"/>
     <row r="49" ht="12.0" customHeight="1">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1726,366 +1735,433 @@
         <v>10</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="8">
-        <v>1.0</v>
+        <v>15</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="C54" s="6">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
-      <c r="B55" s="9" t="s">
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" ht="12.0" customHeight="1">
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" ht="12.0" customHeight="1">
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" ht="12.0" customHeight="1">
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" ht="12.0" customHeight="1"/>
+    <row r="60" ht="12.0" customHeight="1">
+      <c r="A60" t="s">
         <v>35</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" ht="12.0" customHeight="1">
-      <c r="B56" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" ht="12.0" customHeight="1"/>
-    <row r="58" ht="12.0" customHeight="1">
-      <c r="A58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" ht="12.0" customHeight="1">
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" ht="12.0" customHeight="1">
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="8">
-        <v>1.0</v>
+        <v>10</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="B62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64" ht="12.0" customHeight="1">
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" ht="12.0" customHeight="1">
+      <c r="B65" t="s">
         <v>16</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" ht="12.0" customHeight="1">
+      <c r="B66" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" ht="12.0" customHeight="1">
+      <c r="B67" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="64" ht="12.0" customHeight="1">
-      <c r="B64" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" ht="12.0" customHeight="1">
-      <c r="B65" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" ht="12.0" customHeight="1"/>
-    <row r="67" ht="12.0" customHeight="1">
-      <c r="A67" t="s">
+      <c r="C67" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" ht="12.0" customHeight="1">
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
+    <row r="68" ht="12.0" customHeight="1"/>
     <row r="69" ht="12.0" customHeight="1">
-      <c r="B69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" t="s">
-        <v>13</v>
+      <c r="A69" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="70" ht="12.0" customHeight="1">
       <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="8">
-        <v>1.0</v>
+        <v>10</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="B71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73" ht="12.0" customHeight="1">
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" ht="12.0" customHeight="1">
+      <c r="B74" t="s">
         <v>16</v>
       </c>
-      <c r="C72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" ht="12.0" customHeight="1">
-      <c r="B73" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" ht="12.0" customHeight="1">
-      <c r="B74" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="75" ht="12.0" customHeight="1"/>
+    <row r="75" ht="12.0" customHeight="1">
+      <c r="B75" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="76" ht="12.0" customHeight="1">
-      <c r="A76" t="s">
+      <c r="B76" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" ht="12.0" customHeight="1"/>
+    <row r="78" ht="12.0" customHeight="1">
+      <c r="A78" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="77" ht="12.0" customHeight="1">
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" ht="12.0" customHeight="1">
-      <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="79" ht="12.0" customHeight="1">
       <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="8">
-        <v>1.0</v>
+        <v>10</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="80" ht="12.0" customHeight="1">
       <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="81" ht="12.0" customHeight="1">
       <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82" ht="12.0" customHeight="1">
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" ht="12.0" customHeight="1">
+      <c r="B83" t="s">
         <v>16</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="82" ht="12.0" customHeight="1">
-      <c r="B82" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" ht="12.0" customHeight="1">
-      <c r="B83" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" ht="12.0" customHeight="1"/>
+    <row r="84" ht="12.0" customHeight="1">
+      <c r="B84" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="85" ht="12.0" customHeight="1">
-      <c r="A85" t="s">
+      <c r="B85" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" ht="12.0" customHeight="1">
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
+    <row r="86" ht="12.0" customHeight="1"/>
     <row r="87" ht="12.0" customHeight="1">
-      <c r="B87" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
+      <c r="A87" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="88" ht="12.0" customHeight="1">
       <c r="B88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="8">
-        <v>1.0</v>
+        <v>10</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="B89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="90" ht="12.0" customHeight="1">
       <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91" ht="12.0" customHeight="1">
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" ht="12.0" customHeight="1">
+      <c r="B92" t="s">
         <v>16</v>
       </c>
-      <c r="C90" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" ht="12.0" customHeight="1">
-      <c r="B91" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" ht="12.0" customHeight="1">
-      <c r="B92" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C92" s="12" t="s">
+    <row r="93" ht="12.0" customHeight="1">
+      <c r="B93" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" ht="12.0" customHeight="1">
+      <c r="B94" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" ht="12.0" customHeight="1"/>
+    <row r="96" ht="12.0" customHeight="1">
+      <c r="A96" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="93" ht="12.0" customHeight="1"/>
-    <row r="94" ht="12.0" customHeight="1">
-      <c r="A94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" ht="12.0" customHeight="1">
-      <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" ht="12.0" customHeight="1">
-      <c r="B96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="97" ht="12.0" customHeight="1">
       <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="8">
-        <v>1.0</v>
+        <v>10</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="12.0" customHeight="1">
       <c r="B98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="99" ht="12.0" customHeight="1">
       <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100" ht="12.0" customHeight="1">
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" ht="12.0" customHeight="1">
+      <c r="B101" t="s">
         <v>16</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" ht="12.0" customHeight="1">
+      <c r="B102" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="100" ht="12.0" customHeight="1">
-      <c r="B100" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" ht="12.0" customHeight="1">
-      <c r="B101" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="12" t="s">
+    <row r="103" ht="12.0" customHeight="1">
+      <c r="B103" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="102" ht="12.0" customHeight="1"/>
-    <row r="103" ht="12.0" customHeight="1"/>
     <row r="104" ht="12.0" customHeight="1"/>
-    <row r="105" ht="12.0" customHeight="1"/>
-    <row r="106" ht="12.0" customHeight="1"/>
-    <row r="107" ht="12.0" customHeight="1"/>
-    <row r="108" ht="12.0" customHeight="1"/>
-    <row r="109" ht="12.0" customHeight="1"/>
-    <row r="110" ht="12.0" customHeight="1"/>
-    <row r="111" ht="12.0" customHeight="1"/>
-    <row r="112" ht="12.0" customHeight="1"/>
+    <row r="105" ht="12.0" customHeight="1">
+      <c r="A105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" ht="12.0" customHeight="1">
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" ht="12.0" customHeight="1">
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" ht="12.0" customHeight="1">
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109" ht="12.0" customHeight="1">
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="8"/>
+    </row>
+    <row r="110" ht="12.0" customHeight="1">
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" ht="12.0" customHeight="1">
+      <c r="B111" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" ht="12.0" customHeight="1">
+      <c r="B112" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="113" ht="12.0" customHeight="1"/>
     <row r="114" ht="12.0" customHeight="1"/>
     <row r="115" ht="12.0" customHeight="1"/>
@@ -2963,6 +3039,17 @@
     <row r="987" ht="12.0" customHeight="1"/>
     <row r="988" ht="12.0" customHeight="1"/>
     <row r="989" ht="12.0" customHeight="1"/>
+    <row r="990" ht="12.0" customHeight="1"/>
+    <row r="991" ht="12.0" customHeight="1"/>
+    <row r="992" ht="12.0" customHeight="1"/>
+    <row r="993" ht="12.0" customHeight="1"/>
+    <row r="994" ht="12.0" customHeight="1"/>
+    <row r="995" ht="12.0" customHeight="1"/>
+    <row r="996" ht="12.0" customHeight="1"/>
+    <row r="997" ht="12.0" customHeight="1"/>
+    <row r="998" ht="12.0" customHeight="1"/>
+    <row r="999" ht="12.0" customHeight="1"/>
+    <row r="1000" ht="12.0" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
